--- a/cfg/lang_cfg.xlsx
+++ b/cfg/lang_cfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Emanon\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB882E5-C6B4-45D4-BCA5-4C373FACF31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA425321-55AC-4CFA-BDFF-9200260463CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>[TABLE_BEGIN]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>About</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回忆的爱玛侬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memories of Emanon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -544,6 +556,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="6" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>

--- a/cfg/lang_cfg.xlsx
+++ b/cfg/lang_cfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Emanon\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA425321-55AC-4CFA-BDFF-9200260463CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3E39A0-A60A-4035-A579-0BC9A86A22E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>[TABLE_BEGIN]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上次更新：{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +176,34 @@
   </si>
   <si>
     <t>Memories of Emanon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer_update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由Cry进行艺术化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer_art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created by Shelton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artistic by Cry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由Shelton进行站点创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
@@ -558,116 +582,138 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>

--- a/cfg/lang_cfg.xlsx
+++ b/cfg/lang_cfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Emanon\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3E39A0-A60A-4035-A579-0BC9A86A22E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07CDE6B-2F35-4AE9-8627-15905F8586FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>[TABLE_BEGIN]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由Cry进行艺术化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>footer_art</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,7 +199,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由Shelton进行站点创建</t>
+    <t>index_year_progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_month_progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_day_progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_refresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh in {0}m {1}s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新时间剩余 {0}m {1}s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由 Shelton 进行站点创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由 Cry 进行艺术化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT Simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT效果模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,15 +589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
@@ -591,134 +651,190 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>